--- a/1ο Παραδοτέο/Team-Plan/Files/Team-plan.xlsx
+++ b/1ο Παραδοτέο/Team-Plan/Files/Team-plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\University-Software-Engineering-Project\1ο Παραδοτέο\Team-Plan\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89922CA9-F531-4DB4-A2AB-212FB12CAB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEA1C69-FA02-4504-9FEC-D878D629C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EAC7372-4E6D-4560-AE19-81BB16F488F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>Εύρεση Θέματος</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Πιθανή Αναθεώρηση Use-cases v0.2</t>
   </si>
   <si>
-    <t>Πιθανή Αναθεώρηση Domain-models v0.2</t>
-  </si>
-  <si>
     <t>Δημιουργία Sequence-diagrams v0.1</t>
   </si>
   <si>
@@ -227,30 +224,9 @@
     <t>Mon 20/03/23</t>
   </si>
   <si>
-    <t>Sun 19/03/23</t>
-  </si>
-  <si>
-    <t>Tue 21/03/23</t>
-  </si>
-  <si>
-    <t>Fri 14/04/23</t>
-  </si>
-  <si>
     <t>Sat 15/04/23</t>
   </si>
   <si>
-    <t>Mon 01/05/23</t>
-  </si>
-  <si>
-    <t>Tue 02/05/23</t>
-  </si>
-  <si>
-    <t>Sat 20/05/23</t>
-  </si>
-  <si>
-    <t>Sun 21/05/23</t>
-  </si>
-  <si>
     <t>Sat 27/05/23</t>
   </si>
   <si>
@@ -266,67 +242,61 @@
     <t>Thu 09/03/23</t>
   </si>
   <si>
-    <t>Sat 18/03/23</t>
-  </si>
-  <si>
-    <t>Wed 12/04/23</t>
-  </si>
-  <si>
-    <t>Sun 09/04/23</t>
-  </si>
-  <si>
     <t>Mon 27/03/23</t>
   </si>
   <si>
     <t>Fri 21/04/23</t>
   </si>
   <si>
-    <t>Thu 18/05/23</t>
-  </si>
-  <si>
-    <t>Tue 16/05/23</t>
-  </si>
-  <si>
-    <t>Thu 25/05/23</t>
-  </si>
-  <si>
     <t>Ημερομηνία Έναρξης</t>
   </si>
   <si>
     <t>Ημερομηνία Λήξης</t>
   </si>
   <si>
-    <t>Ορόσημο 1: 1η Υποβολή</t>
-  </si>
-  <si>
-    <t>Ορόσημο 2: 2η Υποβολή</t>
-  </si>
-  <si>
-    <t>Ορόσημο 3: 3η Υποβολή</t>
-  </si>
-  <si>
-    <t>Ορόσημο 4: 4η Υποβολή</t>
-  </si>
-  <si>
-    <t>Ορόσημο 6: 6η Υποβολή</t>
-  </si>
-  <si>
-    <t>TY 25</t>
-  </si>
-  <si>
-    <t>TY 26</t>
-  </si>
-  <si>
-    <t>TY 27</t>
-  </si>
-  <si>
-    <t>TY 28</t>
-  </si>
-  <si>
-    <t>TY 29</t>
-  </si>
-  <si>
-    <t>TY 30</t>
+    <t>Sun 26/03/23</t>
+  </si>
+  <si>
+    <t>Thu 23/03/23</t>
+  </si>
+  <si>
+    <t>Fri 24/03/23</t>
+  </si>
+  <si>
+    <t>Mon 17/04/23</t>
+  </si>
+  <si>
+    <t>Thu 20/04/23</t>
+  </si>
+  <si>
+    <t>Sun 02/04/23</t>
+  </si>
+  <si>
+    <t>Fri 26/05/23</t>
+  </si>
+  <si>
+    <t>Wed 24/05/23</t>
+  </si>
+  <si>
+    <t>Sun 07/05/23</t>
+  </si>
+  <si>
+    <t>Thu 27/04/23</t>
+  </si>
+  <si>
+    <t>Fri 02/06/23</t>
+  </si>
+  <si>
+    <t>Mon 08/05/23</t>
+  </si>
+  <si>
+    <t>Mon 22/05/23</t>
+  </si>
+  <si>
+    <t>Wed 31/05/23</t>
+  </si>
+  <si>
+    <t>Αναθεώρηση Domain-model v0.2</t>
   </si>
 </sst>
 </file>
@@ -699,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6985F944-C52D-44EC-B2E9-303E8C1724C9}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,45 +690,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -774,22 +744,22 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="I2" s="1">
-        <f>(F2+4*E2+G2)/6</f>
-        <v>4</v>
+        <f>(F2+4*J4+G2)/6</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -801,57 +771,57 @@
         <v>4</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H9" si="0">((G3-F3)/6)^2</f>
+        <f t="shared" ref="H3:H25" si="0">((G3-F3)/6)^2</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I9" si="1">(F3+4*E3+G3)/6</f>
-        <v>2.3333333333333335</v>
+        <f t="shared" ref="I3:I25" si="1">(F3+4*J5+G3)/6</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -868,12 +838,12 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -882,7 +852,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -899,21 +869,21 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -930,21 +900,21 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -961,393 +931,393 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1">
-        <f>((G10-F10)/6)^2</f>
-        <v>0.69444444444444453</v>
+        <f t="shared" si="0"/>
+        <v>2.7777777777777781</v>
       </c>
       <c r="I10" s="1">
-        <f>(F10+4*E10+G10)/6</f>
-        <v>7.166666666666667</v>
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>8</v>
       </c>
       <c r="H11" s="1">
-        <f>((G11-F11)/6)^2</f>
-        <v>0.69444444444444453</v>
+        <f t="shared" si="0"/>
+        <v>1.3611111111111114</v>
       </c>
       <c r="I11" s="1">
-        <f>(F11+4*E11+G11)/6</f>
-        <v>5.166666666666667</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1">
-        <f>((G12-F12)/6)^2</f>
-        <v>1.3611111111111114</v>
+        <f t="shared" si="0"/>
+        <v>2.7777777777777781</v>
       </c>
       <c r="I12" s="1">
-        <f>(F12+4*E12+G12)/6</f>
-        <v>4.833333333333333</v>
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1">
-        <f>((G13-F13)/6)^2</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.25</v>
       </c>
       <c r="I13" s="1">
-        <f>(F13+4*E13+G13)/6</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1">
-        <f>((G14-F14)/6)^2</f>
-        <v>2.7777777777777781</v>
+        <f t="shared" si="0"/>
+        <v>7.1111111111111107</v>
       </c>
       <c r="I14" s="1">
-        <f>(F14+4*E14+G14)/6</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
-        <f>((G15-F15)/6)^2</f>
-        <v>6.25</v>
+        <f t="shared" si="0"/>
+        <v>2.25</v>
       </c>
       <c r="I15" s="1">
-        <f>(F15+4*E15+G15)/6</f>
-        <v>24.166666666666668</v>
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1">
-        <f>((G16-F16)/6)^2</f>
-        <v>7.1111111111111107</v>
+        <f t="shared" si="0"/>
+        <v>2.25</v>
       </c>
       <c r="I16" s="1">
-        <f>(F16+4*E16+G16)/6</f>
-        <v>18.333333333333332</v>
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10</v>
-      </c>
       <c r="H17" s="1">
-        <f>((G17-F17)/6)^2</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>10.027777777777777</v>
       </c>
       <c r="I17" s="1">
-        <f>(F17+4*E17+G17)/6</f>
-        <v>6.5</v>
+        <f t="shared" si="1"/>
+        <v>9.8333333333333339</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1">
-        <f>((G18-F18)/6)^2</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>8.0277777777777786</v>
       </c>
       <c r="I18" s="1">
-        <f>(F18+4*E18+G18)/6</f>
-        <v>6.5</v>
+        <f t="shared" si="1"/>
+        <v>9.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1">
-        <f>((G19-F19)/6)^2</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7777777777777781</v>
       </c>
       <c r="I19" s="1">
-        <f>(F19+4*E19+G19)/6</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
         <v>10</v>
       </c>
-      <c r="G20" s="1">
-        <v>20</v>
-      </c>
       <c r="H20" s="1">
-        <f>((G20-F20)/6)^2</f>
-        <v>2.7777777777777781</v>
+        <f t="shared" si="0"/>
+        <v>2.25</v>
       </c>
       <c r="I20" s="1">
-        <f>(F20+4*E20+G20)/6</f>
-        <v>16.333333333333332</v>
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1">
         <v>7</v>
@@ -1359,320 +1329,136 @@
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <f>((G21-F21)/6)^2</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="I21" s="1">
-        <f>(F21+4*E21+G21)/6</f>
-        <v>6.5</v>
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1">
         <v>7</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
       <c r="G22" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1">
-        <f>((G22-F22)/6)^2</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>3.3611111111111107</v>
       </c>
       <c r="I22" s="1">
-        <f>(F22+4*E22+G22)/6</f>
-        <v>6.5</v>
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1">
-        <f>((G23-F23)/6)^2</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3611111111111107</v>
       </c>
       <c r="I23" s="1">
-        <f>(F23+4*E23+G23)/6</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1">
-        <f>((G24-F24)/6)^2</f>
-        <v>10.027777777777777</v>
+        <f t="shared" si="0"/>
+        <v>1.3611111111111114</v>
       </c>
       <c r="I24" s="1">
-        <f>(F24+4*E24+G24)/6</f>
-        <v>33.833333333333336</v>
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E25" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1">
-        <f>((G25-F25)/6)^2</f>
-        <v>8.0277777777777786</v>
+        <f t="shared" si="0"/>
+        <v>0.69444444444444453</v>
       </c>
       <c r="I25" s="1">
-        <f>(F25+4*E25+G25)/6</f>
-        <v>32.166666666666664</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="1">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1">
-        <v>7</v>
-      </c>
-      <c r="G26" s="1">
-        <v>18</v>
-      </c>
-      <c r="H26" s="1">
-        <f>((G26-F26)/6)^2</f>
-        <v>3.3611111111111107</v>
-      </c>
-      <c r="I26" s="1">
-        <f>(F26+4*E26+G26)/6</f>
-        <v>14.166666666666666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="1">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1">
-        <v>7</v>
-      </c>
-      <c r="G27" s="1">
-        <v>18</v>
-      </c>
-      <c r="H27" s="1">
-        <f>((G27-F27)/6)^2</f>
-        <v>3.3611111111111107</v>
-      </c>
-      <c r="I27" s="1">
-        <f>(F27+4*E27+G27)/6</f>
-        <v>14.166666666666666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <f>((G28-F28)/6)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <f>(F28+4*E28+G28)/6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="1">
-        <v>7</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1">
-        <f>((G29-F29)/6)^2</f>
-        <v>1.3611111111111114</v>
-      </c>
-      <c r="I29" s="1">
-        <f>(F29+4*E29+G29)/6</f>
-        <v>6.833333333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1">
-        <v>8</v>
-      </c>
-      <c r="H30" s="1">
-        <f>((G30-F30)/6)^2</f>
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="I30" s="1">
-        <f>(F30+4*E30+G30)/6</f>
-        <v>5.166666666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <f>((G31-F31)/6)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <f>(F31+4*E31+G31)/6</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
       </c>
     </row>
   </sheetData>
